--- a/mentalist/metalist Script 목록_20200726.xlsx
+++ b/mentalist/metalist Script 목록_20200726.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sys4u-my.sharepoint.com/personal/inog74_plateer_com/Documents/git/inogift/inogift.github.io/md/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sys4u-my.sharepoint.com/personal/inog74_plateer_com/Documents/git/inogift/inogift.github.io/mentalist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="8_{DA9F7241-A476-4E54-AF3C-1B761BDE27DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DFC92812-B042-4F7F-8420-76EE1007772E}"/>
+  <xr:revisionPtr revIDLastSave="431" documentId="8_{DA9F7241-A476-4E54-AF3C-1B761BDE27DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1741F470-EEE0-4ECC-9904-8618B023672F}"/>
   <bookViews>
-    <workbookView xWindow="-22995" yWindow="735" windowWidth="18165" windowHeight="20295" activeTab="1" xr2:uid="{74399026-B894-416A-A08C-3B1E5A50C524}"/>
+    <workbookView xWindow="-23880" yWindow="1500" windowWidth="20325" windowHeight="20295" activeTab="2" xr2:uid="{74399026-B894-416A-A08C-3B1E5A50C524}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="6" r:id="rId1"/>
@@ -572,9 +572,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>https://transcripts.foreverdreaming.org/viewtopic.php?f=37&amp;t=13568</t>
-  </si>
-  <si>
     <t>https://transcripts.foreverdreaming.org/viewtopic.php?f=37&amp;t=13570</t>
   </si>
   <si>
@@ -936,9 +933,6 @@
   </si>
   <si>
     <t>https://transcripts.foreverdreaming.org/viewtopic.php?f=37&amp;t=13767</t>
-  </si>
-  <si>
-    <t>https://transcripts.foreverdreaming.org/viewtopic.php?f=37&amp;t=13768</t>
   </si>
   <si>
     <t>https://transcripts.foreverdreaming.org/viewtopic.php?f=37&amp;t=13769</t>
@@ -4843,6 +4837,14 @@
   </si>
   <si>
     <t>|     |</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://transcripts.foreverdreaming.org/viewtopic.php?f=37&amp;t=13768</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://transcripts.foreverdreaming.org/viewtopic.php?f=37&amp;t=13568</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5066,12 +5068,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -5095,6 +5091,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5425,404 +5427,404 @@
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="2:12" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="13"/>
+      <c r="D11" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="2:12" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="15"/>
-      <c r="D11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>803</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="2:12" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
         <v>804</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="E12" s="13" t="s">
         <v>805</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="2:12" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="15"/>
-      <c r="D12" s="15" t="s">
+      <c r="F12" s="13" t="s">
         <v>806</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="2:12" ht="70.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
         <v>807</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="E13" s="13" t="s">
         <v>808</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="2:12" ht="70.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="15"/>
-      <c r="D13" s="15" t="s">
+      <c r="F13" s="13" t="s">
         <v>809</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
         <v>810</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="E14" s="13" t="s">
         <v>811</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-    </row>
-    <row r="14" spans="2:12" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="15"/>
-      <c r="D14" s="15" t="s">
+      <c r="F14" s="13" t="s">
         <v>812</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="2:12" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
         <v>813</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="E15" s="13" t="s">
         <v>814</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="2:12" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="15"/>
-      <c r="D15" s="15" t="s">
+      <c r="F15" s="13" t="s">
         <v>815</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="G15" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="2:12" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
         <v>817</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="E16" s="13" t="s">
         <v>818</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-    </row>
-    <row r="16" spans="2:12" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="15"/>
-      <c r="D16" s="15" t="s">
+      <c r="F16" s="13" t="s">
         <v>819</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="3:12" ht="105.45" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="13"/>
+      <c r="D19" s="15" t="s">
         <v>820</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
         <v>821</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-    </row>
-    <row r="19" spans="3:12" ht="105.45" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="15"/>
-      <c r="D19" s="17" t="s">
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="13"/>
+      <c r="D20" s="15" t="s">
         <v>822</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17" t="s">
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="13"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="13"/>
+      <c r="D22" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="15"/>
-      <c r="D20" s="17" t="s">
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" s="13"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="3:12" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" s="13" t="s">
         <v>824</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="15"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" s="15"/>
-      <c r="D22" s="17" t="s">
+      <c r="D24" s="15" t="s">
         <v>825</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" s="15"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-    </row>
-    <row r="24" spans="3:12" ht="70.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C24" s="15" t="s">
+      <c r="E24" s="15"/>
+      <c r="F24" s="15" t="s">
         <v>826</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="G24" s="12" t="s">
         <v>827</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17" t="s">
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="3:12" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
         <v>828</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13" t="s">
         <v>829</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-    </row>
-    <row r="25" spans="3:12" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C25" s="15"/>
-      <c r="D25" s="15" t="s">
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="3:12" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13" t="s">
         <v>830</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15" t="s">
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
         <v>831</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-    </row>
-    <row r="26" spans="3:12" ht="52.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="C26" s="15"/>
-      <c r="D26" s="15" t="s">
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="3:12" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15" t="s">
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13" t="s">
         <v>833</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-    </row>
-    <row r="27" spans="3:12" ht="52.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15" t="s">
+      <c r="E28" s="13"/>
+      <c r="F28" s="13" t="s">
         <v>834</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" s="15"/>
-      <c r="D28" s="15" t="s">
+      <c r="G28" s="12" t="s">
         <v>835</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15" t="s">
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="3:12" ht="70.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" s="13"/>
+      <c r="D29" s="13" t="s">
         <v>836</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="E29" s="13"/>
+      <c r="F29" s="13" t="s">
         <v>837</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-    </row>
-    <row r="29" spans="3:12" ht="70.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C29" s="15"/>
-      <c r="D29" s="15" t="s">
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31" s="13"/>
+      <c r="D31" s="13" t="s">
         <v>838</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15" t="s">
+      <c r="E31" s="13"/>
+      <c r="F31" s="13" t="s">
         <v>839</v>
       </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C31" s="15"/>
-      <c r="D31" s="15" t="s">
-        <v>840</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15" t="s">
-        <v>841</v>
-      </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5839,11 +5841,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B136E61-4AF8-4E65-B295-763AED8F6859}">
   <dimension ref="B2:E156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D118" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F151" sqref="F151"/>
+      <selection pane="bottomRight" activeCell="L132" sqref="L131:L132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -5851,27 +5853,27 @@
     <col min="2" max="2" width="4.640625" customWidth="1"/>
     <col min="3" max="3" width="35.0703125" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="18" t="str">
+      <c r="C6" s="16" t="str">
         <f>foreverdreaming!C6</f>
         <v>Episode</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="21" t="s">
-        <v>843</v>
+      <c r="D6" s="16"/>
+      <c r="E6" s="19" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -5883,10 +5885,10 @@
         <v>01x01 - Pilot</v>
       </c>
       <c r="D7" t="s">
-        <v>849</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -5898,10 +5900,10 @@
         <v>01x02 - Red Hair and Silver Tape</v>
       </c>
       <c r="D8" t="s">
-        <v>849</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -5913,10 +5915,10 @@
         <v>01x03 - Red Tide</v>
       </c>
       <c r="D9" t="s">
-        <v>849</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -5928,10 +5930,10 @@
         <v>01x04 - Ladies in Red</v>
       </c>
       <c r="D10" t="s">
-        <v>849</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -5943,10 +5945,10 @@
         <v>01x05 - Redwood</v>
       </c>
       <c r="D11" t="s">
-        <v>849</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -5958,10 +5960,10 @@
         <v>01x06 - Red Handed</v>
       </c>
       <c r="D12" t="s">
-        <v>849</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -5973,10 +5975,10 @@
         <v>01x07 - Seeing Red</v>
       </c>
       <c r="D13" t="s">
-        <v>849</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -5988,10 +5990,10 @@
         <v>01x08 - The Thin Red Line</v>
       </c>
       <c r="D14" t="s">
-        <v>849</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6003,10 +6005,10 @@
         <v>01x09 - Flame Red</v>
       </c>
       <c r="D15" t="s">
-        <v>849</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6018,10 +6020,10 @@
         <v>01x10 - Red Brick and Ivy</v>
       </c>
       <c r="D16" t="s">
-        <v>849</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6033,10 +6035,10 @@
         <v>01x11 - Red John's Friends</v>
       </c>
       <c r="D17" t="s">
-        <v>849</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6048,10 +6050,10 @@
         <v>01x12 - Red Rum</v>
       </c>
       <c r="D18" t="s">
-        <v>849</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6063,10 +6065,10 @@
         <v>01x13 - Paint It Red</v>
       </c>
       <c r="D19" t="s">
-        <v>849</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6078,10 +6080,10 @@
         <v>01x14 - Crimson Casanova</v>
       </c>
       <c r="D20" t="s">
-        <v>849</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6093,10 +6095,10 @@
         <v>01x15 - Scarlett Fever</v>
       </c>
       <c r="D21" t="s">
-        <v>849</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6108,10 +6110,10 @@
         <v>01x16 - Bloodshot</v>
       </c>
       <c r="D22" t="s">
-        <v>849</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6123,10 +6125,10 @@
         <v>01x17 - Carnelian Inc.</v>
       </c>
       <c r="D23" t="s">
-        <v>849</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6138,10 +6140,10 @@
         <v>01x18 - Russet Potatoes</v>
       </c>
       <c r="D24" t="s">
-        <v>849</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6153,10 +6155,10 @@
         <v>01x19 - A Dozen Red Roses</v>
       </c>
       <c r="D25" t="s">
-        <v>849</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6168,10 +6170,10 @@
         <v>01x20 - Red Sauce</v>
       </c>
       <c r="D26" t="s">
-        <v>849</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6183,10 +6185,10 @@
         <v>01x21 - Miss Red</v>
       </c>
       <c r="D27" t="s">
-        <v>849</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6198,10 +6200,10 @@
         <v>01x22 - Blood Brothers</v>
       </c>
       <c r="D28" t="s">
-        <v>849</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6213,7 +6215,7 @@
         <v>01x23 - Red John's Footsteps</v>
       </c>
       <c r="D29" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6225,7 +6227,7 @@
         <v>02x01 - Redemption</v>
       </c>
       <c r="D30" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6237,7 +6239,7 @@
         <v>02x02 - The Scarlet Letter</v>
       </c>
       <c r="D31" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6249,7 +6251,7 @@
         <v>02x03 - Red Badge</v>
       </c>
       <c r="D32" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6261,7 +6263,7 @@
         <v>02x04 - Red Menace</v>
       </c>
       <c r="D33" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6273,7 +6275,7 @@
         <v>02x05 - Red Scare</v>
       </c>
       <c r="D34" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6285,7 +6287,7 @@
         <v>02x06 - Black Gold and Red Blood</v>
       </c>
       <c r="D35" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6297,7 +6299,7 @@
         <v>02x07 - Red Bulls</v>
       </c>
       <c r="D36" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6309,7 +6311,7 @@
         <v>02x08 - His Red Right Hand</v>
       </c>
       <c r="D37" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6321,7 +6323,7 @@
         <v>02x09 - A Price Above Rubies</v>
       </c>
       <c r="D38" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6333,7 +6335,7 @@
         <v>02x10 - Throwing Fire</v>
       </c>
       <c r="D39" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6345,7 +6347,7 @@
         <v>02x11 - Rose-Colored Glasses</v>
       </c>
       <c r="D40" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6357,7 +6359,7 @@
         <v>02x12 - Bleeding Heart</v>
       </c>
       <c r="D41" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6369,7 +6371,7 @@
         <v>02x13 - Redline</v>
       </c>
       <c r="D42" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6381,7 +6383,7 @@
         <v>02x14 - Blood In, Blood Out</v>
       </c>
       <c r="D43" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6393,7 +6395,7 @@
         <v>02x15 - Red Herring</v>
       </c>
       <c r="D44" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6405,7 +6407,7 @@
         <v>02x16 - Code Red</v>
       </c>
       <c r="D45" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6417,7 +6419,7 @@
         <v>02x17 - The Red Box</v>
       </c>
       <c r="D46" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6429,7 +6431,7 @@
         <v>02x18 - Aingavite Baa</v>
       </c>
       <c r="D47" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6441,7 +6443,7 @@
         <v>02x19 - Blood Money</v>
       </c>
       <c r="D48" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6453,7 +6455,7 @@
         <v>02x20 - Red All Over</v>
       </c>
       <c r="D49" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6465,7 +6467,7 @@
         <v>02x21 - 18-5-4</v>
       </c>
       <c r="D50" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6477,7 +6479,7 @@
         <v>02x22 - Red Letter</v>
       </c>
       <c r="D51" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6489,7 +6491,7 @@
         <v>02x23 - Red Sky in the Morning</v>
       </c>
       <c r="D52" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6501,7 +6503,7 @@
         <v>03x01 - Red Sky at Night</v>
       </c>
       <c r="D53" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6513,7 +6515,7 @@
         <v>03x02 - Cackle-Bladder Blood</v>
       </c>
       <c r="D54" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6525,7 +6527,7 @@
         <v>03x03 - The Blood on His Hands</v>
       </c>
       <c r="D55" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6537,7 +6539,7 @@
         <v>03x04 - Red Carpet Treatment</v>
       </c>
       <c r="D56" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6549,7 +6551,7 @@
         <v>03x05 - The Red Ponies</v>
       </c>
       <c r="D57" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6561,7 +6563,7 @@
         <v>03x06 - Pink Chanel Suit</v>
       </c>
       <c r="D58" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6573,7 +6575,7 @@
         <v>03x07 - Red Hot</v>
       </c>
       <c r="D59" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6585,7 +6587,7 @@
         <v>03x08 - Ball of Fire</v>
       </c>
       <c r="D60" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6597,7 +6599,7 @@
         <v>03x09 - Red Moon</v>
       </c>
       <c r="D61" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6609,7 +6611,7 @@
         <v>03x10 - Jolly Red Elf</v>
       </c>
       <c r="D62" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6621,10 +6623,10 @@
         <v>03x11 - Bloodsport</v>
       </c>
       <c r="D63" t="s">
-        <v>849</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6636,7 +6638,7 @@
         <v>03x12 - Bloodhounds</v>
       </c>
       <c r="D64" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6648,7 +6650,7 @@
         <v>03x13 - Red Alert</v>
       </c>
       <c r="D65" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6660,7 +6662,7 @@
         <v>03x14 - Blood For Blood</v>
       </c>
       <c r="D66" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6672,10 +6674,10 @@
         <v>03x15 - Red Gold</v>
       </c>
       <c r="D67" t="s">
-        <v>849</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>844</v>
+        <v>847</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6687,7 +6689,7 @@
         <v>03x16 - Red Queen</v>
       </c>
       <c r="D68" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6699,7 +6701,7 @@
         <v>03x17 - Bloodstream</v>
       </c>
       <c r="D69" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6711,7 +6713,7 @@
         <v>03x18 - The Red Mile</v>
       </c>
       <c r="D70" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6723,7 +6725,7 @@
         <v>03x19 - Every Rose Has Its Thorn</v>
       </c>
       <c r="D71" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6735,7 +6737,7 @@
         <v>03x20 - Redacted</v>
       </c>
       <c r="D72" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6747,7 +6749,7 @@
         <v>03x21 - Like A Redheaded Stepchild</v>
       </c>
       <c r="D73" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6759,7 +6761,7 @@
         <v>03x22 - Rhapsody in Red</v>
       </c>
       <c r="D74" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6771,7 +6773,7 @@
         <v>03x23 - 03x24 - Strawberries &amp; Cream (2-part)</v>
       </c>
       <c r="D75" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6783,7 +6785,7 @@
         <v>04x01 - Scarlet Ribbons</v>
       </c>
       <c r="D76" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6795,7 +6797,7 @@
         <v>04x02 - Little Red Book</v>
       </c>
       <c r="D77" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6807,7 +6809,7 @@
         <v>04x03 - Pretty Red Balloon</v>
       </c>
       <c r="D78" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6819,7 +6821,7 @@
         <v>04x04 - Ring Around the Rosie</v>
       </c>
       <c r="D79" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6831,7 +6833,7 @@
         <v>04x05 - Blood and Sand</v>
       </c>
       <c r="D80" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6843,7 +6845,7 @@
         <v>04x06 - Where in the World is Carmine O'Brien</v>
       </c>
       <c r="D81" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6855,7 +6857,7 @@
         <v>04x07 - Blinking Red Light</v>
       </c>
       <c r="D82" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6867,7 +6869,7 @@
         <v>04x08 - Pink Tops</v>
       </c>
       <c r="D83" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6879,7 +6881,7 @@
         <v>04x09 - The Redshirt</v>
       </c>
       <c r="D84" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6891,7 +6893,7 @@
         <v>04x10 - Fugue in Red</v>
       </c>
       <c r="D85" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6903,7 +6905,7 @@
         <v>04x11 - Always Bet on Red</v>
       </c>
       <c r="D86" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6915,7 +6917,7 @@
         <v>04x12 - My Bloody Valentine</v>
       </c>
       <c r="D87" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6927,7 +6929,7 @@
         <v>04x13 - Red Is The New Black</v>
       </c>
       <c r="D88" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6939,7 +6941,7 @@
         <v>04x14 - At First Blush</v>
       </c>
       <c r="D89" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6951,7 +6953,7 @@
         <v>04x15 - War of the Roses</v>
       </c>
       <c r="D90" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6963,7 +6965,7 @@
         <v>04x16 - His Thoughts Were Red Thoughts</v>
       </c>
       <c r="D91" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6975,7 +6977,7 @@
         <v>04x17 - Cheap Burgundy</v>
       </c>
       <c r="D92" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6987,7 +6989,7 @@
         <v>04x18 - Ruddy Cheeks</v>
       </c>
       <c r="D93" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -6999,7 +7001,7 @@
         <v>04x19 - Pink Champagne on Ice</v>
       </c>
       <c r="D94" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -7011,7 +7013,7 @@
         <v>04x20 - Something's Rotten in Redmund</v>
       </c>
       <c r="D95" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -7023,7 +7025,7 @@
         <v>04x21 - Ruby Slippers</v>
       </c>
       <c r="D96" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7035,7 +7037,7 @@
         <v>04x22 - So Long, and Thanks for All the Red Snapper</v>
       </c>
       <c r="D97" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7047,7 +7049,7 @@
         <v>04x23 - Red Rover, Red Rover</v>
       </c>
       <c r="D98" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7059,7 +7061,7 @@
         <v>04x24 - The Crimson Hat</v>
       </c>
       <c r="D99" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7071,10 +7073,10 @@
         <v>05x01 - The Red Glass Bead</v>
       </c>
       <c r="D100" t="s">
-        <v>849</v>
-      </c>
-      <c r="E100" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7086,10 +7088,10 @@
         <v>05x02 - Devil's Cherry</v>
       </c>
       <c r="D101" t="s">
-        <v>849</v>
-      </c>
-      <c r="E101" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7101,10 +7103,10 @@
         <v>05x03 - Not One Red Cent</v>
       </c>
       <c r="D102" t="s">
-        <v>849</v>
-      </c>
-      <c r="E102" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7116,10 +7118,10 @@
         <v>05x04 - Blood Feud</v>
       </c>
       <c r="D103" t="s">
-        <v>849</v>
-      </c>
-      <c r="E103" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7131,10 +7133,10 @@
         <v>05x05 - Red Dawn</v>
       </c>
       <c r="D104" t="s">
-        <v>849</v>
-      </c>
-      <c r="E104" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7146,10 +7148,10 @@
         <v>05x06 - Cherry Picked</v>
       </c>
       <c r="D105" t="s">
-        <v>849</v>
-      </c>
-      <c r="E105" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7161,10 +7163,10 @@
         <v>05x07 - If It Bleeds, It Leads</v>
       </c>
       <c r="D106" t="s">
-        <v>849</v>
-      </c>
-      <c r="E106" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7176,10 +7178,10 @@
         <v>05x08 - Red Sails in the Sunset</v>
       </c>
       <c r="D107" t="s">
-        <v>849</v>
-      </c>
-      <c r="E107" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7191,10 +7193,10 @@
         <v>05x09 - Black Cherry</v>
       </c>
       <c r="D108" t="s">
-        <v>849</v>
-      </c>
-      <c r="E108" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7206,10 +7208,10 @@
         <v>05x10 - Panama Red</v>
       </c>
       <c r="D109" t="s">
-        <v>849</v>
-      </c>
-      <c r="E109" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7221,10 +7223,10 @@
         <v>05x11 - Days of Wine &amp; Roses</v>
       </c>
       <c r="D110" t="s">
-        <v>849</v>
-      </c>
-      <c r="E110" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7236,10 +7238,10 @@
         <v>05x12 - Little Red Corvette</v>
       </c>
       <c r="D111" t="s">
-        <v>849</v>
-      </c>
-      <c r="E111" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7251,10 +7253,10 @@
         <v>05x13 - The Red Barn</v>
       </c>
       <c r="D112" t="s">
-        <v>849</v>
-      </c>
-      <c r="E112" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7266,10 +7268,10 @@
         <v>05x14 - Red in Tooth and Claw</v>
       </c>
       <c r="D113" t="s">
-        <v>849</v>
-      </c>
-      <c r="E113" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7281,10 +7283,10 @@
         <v>05x15 - Red Lacquer Nail Polish</v>
       </c>
       <c r="D114" t="s">
-        <v>849</v>
-      </c>
-      <c r="E114" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7296,10 +7298,10 @@
         <v>05x16 - There Will Be Blood</v>
       </c>
       <c r="D115" t="s">
-        <v>849</v>
-      </c>
-      <c r="E115" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7311,10 +7313,10 @@
         <v>05x17 - Red, White And Blue</v>
       </c>
       <c r="D116" t="s">
-        <v>849</v>
-      </c>
-      <c r="E116" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7326,10 +7328,10 @@
         <v>05x18 - Behind the Red Curtain</v>
       </c>
       <c r="D117" t="s">
-        <v>849</v>
-      </c>
-      <c r="E117" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7341,10 +7343,10 @@
         <v>05x19 - Red Letter Day</v>
       </c>
       <c r="D118" t="s">
-        <v>849</v>
-      </c>
-      <c r="E118" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7356,10 +7358,10 @@
         <v>05x20 - Red Velvet Cupcakes</v>
       </c>
       <c r="D119" t="s">
-        <v>849</v>
-      </c>
-      <c r="E119" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7371,10 +7373,10 @@
         <v>05x21 - Red and Itchy</v>
       </c>
       <c r="D120" t="s">
-        <v>849</v>
-      </c>
-      <c r="E120" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7386,10 +7388,10 @@
         <v>05x22 - Red John's Rules</v>
       </c>
       <c r="D121" t="s">
-        <v>849</v>
-      </c>
-      <c r="E121" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7401,7 +7403,7 @@
         <v>06x01 - The Desert Rose</v>
       </c>
       <c r="D122" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7413,7 +7415,7 @@
         <v>06x02 - Black-Winged Red Bird</v>
       </c>
       <c r="D123" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7425,7 +7427,7 @@
         <v>06x03 - Wedding In Red</v>
       </c>
       <c r="D124" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7437,7 +7439,7 @@
         <v>06x04 - Red Listed</v>
       </c>
       <c r="D125" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7449,7 +7451,7 @@
         <v>06x05 - The Red Tattoo</v>
       </c>
       <c r="D126" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7461,7 +7463,7 @@
         <v>06x06 - Fire and Brimstone</v>
       </c>
       <c r="D127" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7473,7 +7475,7 @@
         <v>06x07 - The Great Red Dragon</v>
       </c>
       <c r="D128" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7485,7 +7487,7 @@
         <v>06x08 - Red John</v>
       </c>
       <c r="D129" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7497,7 +7499,7 @@
         <v>06x09 - My Blue Heaven</v>
       </c>
       <c r="D130" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7509,7 +7511,7 @@
         <v>06x10 - Green Thumb</v>
       </c>
       <c r="D131" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7521,7 +7523,7 @@
         <v>06x11 - White Lines</v>
       </c>
       <c r="D132" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7533,7 +7535,7 @@
         <v>06x12 - Golden Hammer</v>
       </c>
       <c r="D133" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7545,7 +7547,7 @@
         <v>06x13 - Black Helicopters</v>
       </c>
       <c r="D134" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7557,7 +7559,7 @@
         <v>06x14 - Grey Water</v>
       </c>
       <c r="D135" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7569,7 +7571,7 @@
         <v>06x15 - White As The Driven Snow</v>
       </c>
       <c r="D136" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7581,7 +7583,7 @@
         <v>06x16 - Violets</v>
       </c>
       <c r="D137" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7593,7 +7595,7 @@
         <v>06x17 - Silver Wings of Time</v>
       </c>
       <c r="D138" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7605,7 +7607,7 @@
         <v>06x18 - Forest Green</v>
       </c>
       <c r="D139" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7617,7 +7619,7 @@
         <v>06x19 - Brown Eyed Girls</v>
       </c>
       <c r="D140" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7629,7 +7631,7 @@
         <v>06x20 - Il Tavolo Bianco</v>
       </c>
       <c r="D141" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7641,7 +7643,7 @@
         <v>06x21 - Black Hearts</v>
       </c>
       <c r="D142" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7653,7 +7655,7 @@
         <v>06x22 - Blue Bird</v>
       </c>
       <c r="D143" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7665,10 +7667,10 @@
         <v>07x01 - Nothing But Blue Skies</v>
       </c>
       <c r="D144" t="s">
-        <v>849</v>
-      </c>
-      <c r="E144" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E144" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7680,10 +7682,10 @@
         <v>07x02 - The Greybar Hotel</v>
       </c>
       <c r="D145" t="s">
-        <v>849</v>
-      </c>
-      <c r="E145" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E145" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7695,10 +7697,10 @@
         <v>07x03 - Orange Blossom Ice Cream</v>
       </c>
       <c r="D146" t="s">
-        <v>849</v>
-      </c>
-      <c r="E146" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E146" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7710,10 +7712,10 @@
         <v>07x04 - Black Market</v>
       </c>
       <c r="D147" t="s">
-        <v>849</v>
-      </c>
-      <c r="E147" s="20" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="E147" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7725,7 +7727,7 @@
         <v>07x05 - The Silver Briefcase</v>
       </c>
       <c r="D148" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7737,7 +7739,7 @@
         <v>07x06 - Green Light</v>
       </c>
       <c r="D149" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7749,7 +7751,7 @@
         <v>07x07 - Little Yellow House</v>
       </c>
       <c r="D150" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7761,7 +7763,7 @@
         <v>07x08 - The Whites of His Eyes</v>
       </c>
       <c r="D151" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7773,7 +7775,7 @@
         <v>07x09 - Copper Bullet</v>
       </c>
       <c r="D152" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7785,7 +7787,7 @@
         <v>07x10 - Nothing Gold Can Stay</v>
       </c>
       <c r="D153" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7797,7 +7799,7 @@
         <v>07x11 - Byzantium</v>
       </c>
       <c r="D154" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7809,7 +7811,7 @@
         <v>07x12 - Brown Shag Carpet</v>
       </c>
       <c r="D155" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7821,10 +7823,10 @@
         <v>07x13 - White Orchids</v>
       </c>
       <c r="D156" t="s">
-        <v>849</v>
-      </c>
-      <c r="E156" s="20" t="s">
-        <v>844</v>
+        <v>847</v>
+      </c>
+      <c r="E156" s="18" t="s">
+        <v>842</v>
       </c>
     </row>
   </sheetData>
@@ -7838,11 +7840,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:J156"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="H151" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B156" sqref="B156:C156"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -7859,7 +7861,7 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -7868,13 +7870,13 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="20" t="s">
+        <v>642</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="6" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C6" s="11" t="s">
@@ -7892,23 +7894,23 @@
         <v>52</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>177</v>
+        <v>849</v>
       </c>
       <c r="H7" s="6" t="str">
         <f>subslikescript!D14</f>
         <v>A double murder seems to be the work of a notorious serial killer named Red John, but CBI consultant Patrick Jane thinks it's the work of a copycat.</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" ref="J7:J70" si="0">C7</f>
@@ -7920,19 +7922,19 @@
         <v>176</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H8" s="6" t="str">
         <f>subslikescript!D15</f>
@@ -7951,16 +7953,16 @@
         <v>53</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H9" s="6" t="str">
         <f>subslikescript!D16</f>
@@ -7979,16 +7981,16 @@
         <v>54</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H10" s="6" t="str">
         <f>subslikescript!D17</f>
@@ -8007,16 +8009,16 @@
         <v>55</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H11" s="6" t="str">
         <f>subslikescript!D18</f>
@@ -8035,14 +8037,14 @@
         <v>56</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H12" s="6" t="str">
         <f>subslikescript!D19</f>
@@ -8061,14 +8063,14 @@
         <v>57</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H13" s="6" t="str">
         <f>subslikescript!D20</f>
@@ -8087,14 +8089,14 @@
         <v>58</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H14" s="6" t="str">
         <f>subslikescript!D21</f>
@@ -8113,14 +8115,14 @@
         <v>59</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H15" s="6" t="str">
         <f>subslikescript!D22</f>
@@ -8139,14 +8141,14 @@
         <v>60</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H16" s="6" t="str">
         <f>subslikescript!D23</f>
@@ -8165,14 +8167,14 @@
         <v>61</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H17" s="6" t="str">
         <f>subslikescript!D24</f>
@@ -8191,14 +8193,14 @@
         <v>62</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H18" s="6" t="str">
         <f>subslikescript!D25</f>
@@ -8217,14 +8219,14 @@
         <v>63</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H19" s="6" t="str">
         <f>subslikescript!D26</f>
@@ -8243,14 +8245,14 @@
         <v>64</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H20" s="6" t="str">
         <f>subslikescript!D27</f>
@@ -8269,14 +8271,14 @@
         <v>65</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H21" s="6" t="str">
         <f>subslikescript!D28</f>
@@ -8295,14 +8297,14 @@
         <v>66</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H22" s="6" t="str">
         <f>subslikescript!D29</f>
@@ -8321,14 +8323,14 @@
         <v>67</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H23" s="6" t="str">
         <f>subslikescript!D30</f>
@@ -8347,14 +8349,14 @@
         <v>68</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H24" s="6" t="str">
         <f>subslikescript!D31</f>
@@ -8373,14 +8375,14 @@
         <v>69</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H25" s="6" t="str">
         <f>subslikescript!D32</f>
@@ -8399,14 +8401,14 @@
         <v>70</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H26" s="6" t="str">
         <f>subslikescript!D33</f>
@@ -8425,14 +8427,14 @@
         <v>71</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H27" s="6" t="str">
         <f>subslikescript!D34</f>
@@ -8451,14 +8453,14 @@
         <v>72</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H28" s="6" t="str">
         <f>subslikescript!D35</f>
@@ -8477,14 +8479,14 @@
         <v>73</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H29" s="6" t="str">
         <f>subslikescript!D36</f>
@@ -8503,14 +8505,14 @@
         <v>74</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H30" s="6" t="str">
         <f>subslikescript!D39</f>
@@ -8529,14 +8531,14 @@
         <v>75</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H31" s="6" t="str">
         <f>subslikescript!D40</f>
@@ -8555,14 +8557,14 @@
         <v>76</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H32" s="6" t="str">
         <f>subslikescript!D41</f>
@@ -8581,14 +8583,14 @@
         <v>77</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H33" s="6" t="str">
         <f>subslikescript!D42</f>
@@ -8607,14 +8609,14 @@
         <v>78</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H34" s="6" t="str">
         <f>subslikescript!D43</f>
@@ -8633,14 +8635,14 @@
         <v>79</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H35" s="6" t="str">
         <f>subslikescript!D44</f>
@@ -8659,14 +8661,14 @@
         <v>80</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H36" s="6" t="str">
         <f>subslikescript!D45</f>
@@ -8685,14 +8687,14 @@
         <v>81</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H37" s="6" t="str">
         <f>subslikescript!D46</f>
@@ -8711,14 +8713,14 @@
         <v>82</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H38" s="6" t="str">
         <f>subslikescript!D47</f>
@@ -8737,14 +8739,14 @@
         <v>83</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H39" s="6" t="str">
         <f>subslikescript!D48</f>
@@ -8763,14 +8765,14 @@
         <v>84</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H40" s="6" t="str">
         <f>subslikescript!D49</f>
@@ -8789,14 +8791,14 @@
         <v>85</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H41" s="6" t="str">
         <f>subslikescript!D50</f>
@@ -8815,14 +8817,14 @@
         <v>86</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H42" s="6" t="str">
         <f>subslikescript!D51</f>
@@ -8841,14 +8843,14 @@
         <v>87</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H43" s="6" t="str">
         <f>subslikescript!D52</f>
@@ -8867,14 +8869,14 @@
         <v>88</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H44" s="6" t="str">
         <f>subslikescript!D53</f>
@@ -8893,14 +8895,14 @@
         <v>89</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H45" s="6" t="str">
         <f>subslikescript!D54</f>
@@ -8919,14 +8921,14 @@
         <v>90</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H46" s="6" t="str">
         <f>subslikescript!D55</f>
@@ -8945,14 +8947,14 @@
         <v>91</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H47" s="6" t="str">
         <f>subslikescript!D56</f>
@@ -8971,14 +8973,14 @@
         <v>92</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H48" s="6" t="str">
         <f>subslikescript!D57</f>
@@ -8997,14 +8999,14 @@
         <v>93</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H49" s="6" t="str">
         <f>subslikescript!D58</f>
@@ -9023,14 +9025,14 @@
         <v>94</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H50" s="6" t="str">
         <f>subslikescript!D59</f>
@@ -9049,14 +9051,14 @@
         <v>95</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H51" s="6" t="str">
         <f>subslikescript!D60</f>
@@ -9075,14 +9077,14 @@
         <v>96</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H52" s="6" t="str">
         <f>subslikescript!D61</f>
@@ -9101,14 +9103,14 @@
         <v>97</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G53" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H53" s="6" t="str">
         <f>subslikescript!D64</f>
@@ -9127,14 +9129,14 @@
         <v>98</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H54" s="6" t="str">
         <f>subslikescript!D65</f>
@@ -9153,14 +9155,14 @@
         <v>99</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H55" s="6" t="str">
         <f>subslikescript!D66</f>
@@ -9179,14 +9181,14 @@
         <v>100</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G56" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H56" s="6" t="str">
         <f>subslikescript!D67</f>
@@ -9205,14 +9207,14 @@
         <v>101</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H57" s="6" t="str">
         <f>subslikescript!D68</f>
@@ -9231,14 +9233,14 @@
         <v>102</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H58" s="6" t="str">
         <f>subslikescript!D69</f>
@@ -9257,14 +9259,14 @@
         <v>103</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H59" s="6" t="str">
         <f>subslikescript!D70</f>
@@ -9283,14 +9285,14 @@
         <v>104</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H60" s="6" t="str">
         <f>subslikescript!D71</f>
@@ -9309,14 +9311,14 @@
         <v>105</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H61" s="6" t="str">
         <f>subslikescript!D72</f>
@@ -9335,14 +9337,14 @@
         <v>106</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H62" s="6" t="str">
         <f>subslikescript!D73</f>
@@ -9361,14 +9363,14 @@
         <v>107</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H63" s="6" t="str">
         <f>subslikescript!D74</f>
@@ -9387,14 +9389,14 @@
         <v>108</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H64" s="6" t="str">
         <f>subslikescript!D75</f>
@@ -9413,14 +9415,14 @@
         <v>109</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H65" s="6" t="str">
         <f>subslikescript!D76</f>
@@ -9439,14 +9441,14 @@
         <v>110</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H66" s="6" t="str">
         <f>subslikescript!D77</f>
@@ -9465,14 +9467,14 @@
         <v>111</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G67" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H67" s="6" t="str">
         <f>subslikescript!D78</f>
@@ -9491,14 +9493,14 @@
         <v>112</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G68" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H68" s="6" t="str">
         <f>subslikescript!D79</f>
@@ -9517,14 +9519,14 @@
         <v>113</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H69" s="6" t="str">
         <f>subslikescript!D80</f>
@@ -9543,14 +9545,14 @@
         <v>114</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H70" s="6" t="str">
         <f>subslikescript!D81</f>
@@ -9569,14 +9571,14 @@
         <v>115</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H71" s="6" t="str">
         <f>subslikescript!D82</f>
@@ -9595,14 +9597,14 @@
         <v>116</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G72" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H72" s="6" t="str">
         <f>subslikescript!D83</f>
@@ -9621,14 +9623,14 @@
         <v>117</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H73" s="6" t="str">
         <f>subslikescript!D84</f>
@@ -9647,14 +9649,14 @@
         <v>118</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H74" s="6" t="str">
         <f>subslikescript!D85</f>
@@ -9673,14 +9675,14 @@
         <v>119</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G75" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H75" s="6" t="str">
         <f>subslikescript!D86</f>
@@ -9699,14 +9701,14 @@
         <v>120</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H76" s="6" t="str">
         <f>subslikescript!D89</f>
@@ -9725,14 +9727,14 @@
         <v>121</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G77" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H77" s="6" t="str">
         <f>subslikescript!D90</f>
@@ -9751,14 +9753,14 @@
         <v>122</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H78" s="6" t="str">
         <f>subslikescript!D91</f>
@@ -9777,14 +9779,14 @@
         <v>123</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H79" s="6" t="str">
         <f>subslikescript!D92</f>
@@ -9803,14 +9805,14 @@
         <v>124</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H80" s="6" t="str">
         <f>subslikescript!D93</f>
@@ -9829,14 +9831,14 @@
         <v>125</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G81" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H81" s="6" t="str">
         <f>subslikescript!D94</f>
@@ -9855,14 +9857,14 @@
         <v>126</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G82" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H82" s="6" t="str">
         <f>subslikescript!D95</f>
@@ -9881,14 +9883,14 @@
         <v>127</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G83" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H83" s="6" t="str">
         <f>subslikescript!D96</f>
@@ -9907,14 +9909,14 @@
         <v>128</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G84" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H84" s="6" t="str">
         <f>subslikescript!D97</f>
@@ -9933,14 +9935,14 @@
         <v>129</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G85" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H85" s="6" t="str">
         <f>subslikescript!D98</f>
@@ -9959,14 +9961,14 @@
         <v>130</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G86" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H86" s="6" t="str">
         <f>subslikescript!D99</f>
@@ -9985,14 +9987,14 @@
         <v>131</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H87" s="6" t="str">
         <f>subslikescript!D100</f>
@@ -10011,14 +10013,14 @@
         <v>132</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H88" s="6" t="str">
         <f>subslikescript!D101</f>
@@ -10037,14 +10039,14 @@
         <v>133</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G89" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H89" s="6" t="str">
         <f>subslikescript!D102</f>
@@ -10063,14 +10065,14 @@
         <v>134</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H90" s="6" t="str">
         <f>subslikescript!D103</f>
@@ -10089,14 +10091,14 @@
         <v>135</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G91" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H91" s="6" t="str">
         <f>subslikescript!D104</f>
@@ -10115,14 +10117,14 @@
         <v>136</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G92" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H92" s="6" t="str">
         <f>subslikescript!D105</f>
@@ -10141,14 +10143,14 @@
         <v>137</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G93" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H93" s="6" t="str">
         <f>subslikescript!D106</f>
@@ -10167,14 +10169,14 @@
         <v>138</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G94" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H94" s="6" t="str">
         <f>subslikescript!D107</f>
@@ -10193,14 +10195,14 @@
         <v>139</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H95" s="6" t="str">
         <f>subslikescript!D108</f>
@@ -10219,14 +10221,14 @@
         <v>140</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G96" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H96" s="6" t="str">
         <f>subslikescript!D109</f>
@@ -10245,14 +10247,14 @@
         <v>141</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G97" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H97" s="6" t="str">
         <f>subslikescript!D110</f>
@@ -10271,14 +10273,14 @@
         <v>142</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G98" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H98" s="6" t="str">
         <f>subslikescript!D111</f>
@@ -10297,14 +10299,14 @@
         <v>143</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G99" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H99" s="6" t="str">
         <f>subslikescript!D112</f>
@@ -10323,14 +10325,14 @@
         <v>144</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G100" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H100" s="6" t="str">
         <f>subslikescript!D115</f>
@@ -10349,14 +10351,14 @@
         <v>145</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G101" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H101" s="6" t="str">
         <f>subslikescript!D116</f>
@@ -10375,14 +10377,14 @@
         <v>146</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G102" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H102" s="6" t="str">
         <f>subslikescript!D117</f>
@@ -10401,14 +10403,14 @@
         <v>147</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G103" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H103" s="6" t="str">
         <f>subslikescript!D118</f>
@@ -10427,14 +10429,14 @@
         <v>148</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G104" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H104" s="6" t="str">
         <f>subslikescript!D119</f>
@@ -10453,14 +10455,14 @@
         <v>149</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G105" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H105" s="6" t="str">
         <f>subslikescript!D120</f>
@@ -10479,14 +10481,14 @@
         <v>150</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G106" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H106" s="6" t="str">
         <f>subslikescript!D121</f>
@@ -10505,14 +10507,14 @@
         <v>151</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G107" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H107" s="6" t="str">
         <f>subslikescript!D122</f>
@@ -10531,14 +10533,14 @@
         <v>152</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G108" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H108" s="6" t="str">
         <f>subslikescript!D123</f>
@@ -10557,14 +10559,14 @@
         <v>153</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G109" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H109" s="6" t="str">
         <f>subslikescript!D124</f>
@@ -10583,14 +10585,14 @@
         <v>154</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G110" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H110" s="6" t="str">
         <f>subslikescript!D125</f>
@@ -10609,14 +10611,14 @@
         <v>155</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G111" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H111" s="6" t="str">
         <f>subslikescript!D126</f>
@@ -10635,14 +10637,14 @@
         <v>156</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G112" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H112" s="6" t="str">
         <f>subslikescript!D127</f>
@@ -10661,14 +10663,14 @@
         <v>157</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G113" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H113" s="6" t="str">
         <f>subslikescript!D128</f>
@@ -10687,14 +10689,14 @@
         <v>158</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G114" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H114" s="6" t="str">
         <f>subslikescript!D129</f>
@@ -10713,14 +10715,14 @@
         <v>159</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G115" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H115" s="6" t="str">
         <f>subslikescript!D130</f>
@@ -10739,14 +10741,14 @@
         <v>160</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G116" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H116" s="6" t="str">
         <f>subslikescript!D131</f>
@@ -10765,14 +10767,14 @@
         <v>161</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G117" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H117" s="6" t="str">
         <f>subslikescript!D132</f>
@@ -10791,14 +10793,14 @@
         <v>162</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G118" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H118" s="6" t="str">
         <f>subslikescript!D133</f>
@@ -10817,14 +10819,14 @@
         <v>163</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G119" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H119" s="6" t="str">
         <f>subslikescript!D134</f>
@@ -10843,14 +10845,14 @@
         <v>164</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G120" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H120" s="6" t="str">
         <f>subslikescript!D135</f>
@@ -10869,14 +10871,14 @@
         <v>165</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G121" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H121" s="6" t="str">
         <f>subslikescript!D136</f>
@@ -10895,14 +10897,14 @@
         <v>166</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G122" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H122" s="6" t="str">
         <f>subslikescript!D139</f>
@@ -10921,14 +10923,14 @@
         <v>167</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G123" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H123" s="6" t="str">
         <f>subslikescript!D140</f>
@@ -10947,14 +10949,14 @@
         <v>168</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G124" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H124" s="6" t="str">
         <f>subslikescript!D141</f>
@@ -10973,14 +10975,14 @@
         <v>169</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G125" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H125" s="6" t="str">
         <f>subslikescript!D142</f>
@@ -10999,14 +11001,14 @@
         <v>170</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G126" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H126" s="6" t="str">
         <f>subslikescript!D143</f>
@@ -11025,14 +11027,14 @@
         <v>171</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G127" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H127" s="6" t="str">
         <f>subslikescript!D144</f>
@@ -11051,14 +11053,14 @@
         <v>172</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H128" s="6" t="str">
         <f>subslikescript!D145</f>
@@ -11077,14 +11079,14 @@
         <v>173</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G129" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H129" s="6" t="str">
         <f>subslikescript!D146</f>
@@ -11103,14 +11105,14 @@
         <v>174</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="G130" t="s">
-        <v>299</v>
+        <v>634</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>848</v>
       </c>
       <c r="H130" s="6" t="str">
         <f>subslikescript!D147</f>
@@ -11129,14 +11131,14 @@
         <v>175</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G131" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H131" s="6" t="str">
         <f>subslikescript!D148</f>
@@ -11155,14 +11157,14 @@
         <v>1</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G132" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H132" s="6" t="str">
         <f>subslikescript!D149</f>
@@ -11181,14 +11183,14 @@
         <v>2</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G133" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H133" s="6" t="str">
         <f>subslikescript!D150</f>
@@ -11207,14 +11209,14 @@
         <v>3</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G134" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H134" s="6" t="str">
         <f>subslikescript!D151</f>
@@ -11233,14 +11235,14 @@
         <v>4</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G135" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H135" s="6" t="str">
         <f>subslikescript!D152</f>
@@ -11259,14 +11261,14 @@
         <v>5</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G136" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H136" s="6" t="str">
         <f>subslikescript!D153</f>
@@ -11285,14 +11287,14 @@
         <v>6</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G137" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H137" s="6" t="str">
         <f>subslikescript!D154</f>
@@ -11311,14 +11313,14 @@
         <v>7</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G138" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H138" s="6" t="str">
         <f>subslikescript!D155</f>
@@ -11337,14 +11339,14 @@
         <v>8</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G139" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H139" s="6" t="str">
         <f>subslikescript!D156</f>
@@ -11363,14 +11365,14 @@
         <v>9</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G140" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H140" s="6" t="str">
         <f>subslikescript!D157</f>
@@ -11389,14 +11391,14 @@
         <v>10</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G141" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H141" s="6" t="str">
         <f>subslikescript!D158</f>
@@ -11415,14 +11417,14 @@
         <v>11</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G142" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H142" s="6" t="str">
         <f>subslikescript!D159</f>
@@ -11441,14 +11443,14 @@
         <v>12</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G143" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H143" s="6" t="str">
         <f>subslikescript!D160</f>
@@ -11467,14 +11469,14 @@
         <v>13</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G144" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H144" s="6" t="str">
         <f>subslikescript!D163</f>
@@ -11493,14 +11495,14 @@
         <v>14</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G145" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H145" s="6" t="str">
         <f>subslikescript!D164</f>
@@ -11519,14 +11521,14 @@
         <v>15</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G146" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H146" s="6" t="str">
         <f>subslikescript!D165</f>
@@ -11545,14 +11547,14 @@
         <v>16</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G147" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H147" s="6" t="str">
         <f>subslikescript!D166</f>
@@ -11571,14 +11573,14 @@
         <v>17</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G148" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H148" s="6" t="str">
         <f>subslikescript!D167</f>
@@ -11597,14 +11599,14 @@
         <v>18</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G149" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H149" s="6" t="str">
         <f>subslikescript!D168</f>
@@ -11623,14 +11625,14 @@
         <v>19</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G150" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H150" s="6" t="str">
         <f>subslikescript!D169</f>
@@ -11649,14 +11651,14 @@
         <v>20</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G151" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H151" s="6" t="str">
         <f>subslikescript!D170</f>
@@ -11675,14 +11677,14 @@
         <v>21</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G152" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H152" s="6" t="str">
         <f>subslikescript!D171</f>
@@ -11701,14 +11703,14 @@
         <v>22</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G153" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H153" s="6" t="str">
         <f>subslikescript!D172</f>
@@ -11727,14 +11729,14 @@
         <v>23</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G154" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H154" s="6" t="str">
         <f>subslikescript!D173</f>
@@ -11753,14 +11755,14 @@
         <v>24</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G155" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H155" s="6" t="str">
         <f>subslikescript!D174</f>
@@ -11779,14 +11781,14 @@
         <v>25</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G156" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H156" s="6" t="str">
         <f>subslikescript!D175</f>
@@ -11959,9 +11961,11 @@
     <hyperlink ref="E10" r:id="rId154" display="https://inogift.github.io/md/S1/01x04-Ladies in Red.html" xr:uid="{AC4933C5-3A45-4D39-A471-A463995E6587}"/>
     <hyperlink ref="E11" r:id="rId155" xr:uid="{4C86CB30-D645-485A-94E4-F4239A888157}"/>
     <hyperlink ref="E8" r:id="rId156" xr:uid="{B0021B2D-B8EE-4326-ABB8-708C0306E912}"/>
+    <hyperlink ref="G130" r:id="rId157" xr:uid="{8B741BBB-537D-48E5-A0C1-070F5C2AA0E4}"/>
+    <hyperlink ref="G7" r:id="rId158" xr:uid="{EF703BD7-E37F-4364-BB74-DFC4298B2C6E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId157"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId159"/>
 </worksheet>
 </file>
 
@@ -11970,7 +11974,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:H175"/>
   <sheetViews>
-    <sheetView topLeftCell="A165" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
@@ -11983,1719 +11987,1719 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="138" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="13" t="s">
-        <v>644</v>
-      </c>
-      <c r="C6" s="13"/>
+      <c r="B6" s="21" t="s">
+        <v>642</v>
+      </c>
+      <c r="C6" s="21"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="140.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="70.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C18" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="105.45" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="105.45" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="70.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C21" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C22" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C23" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C24" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="105.45" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C25" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C26" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="87.9" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C27" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="105.45" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C28" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C29" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="140.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C30" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="70.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C31" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="105.45" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C32" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C33" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C34" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C35" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F35" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C36" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="53.15" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>846</v>
+      <c r="D39" s="17" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C40" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C41" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="140.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C42" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F42" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="140.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C43" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="105.45" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C44" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C45" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C46" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C47" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C48" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="87.9" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C49" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C50" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="70.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C51" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C52" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C53" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="158.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C54" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C55" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="140.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C56" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="140.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C57" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="158.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C58" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C59" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="158.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C60" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="246" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C61" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C64" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C65" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C66" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="193.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C67" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="70.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C68" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="193.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C69" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="87.9" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C70" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C71" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="193.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C72" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C73" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C74" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="158.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C75" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="76" spans="2:7" ht="193.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C76" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="77" spans="2:7" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C77" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="105.45" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C78" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="79" spans="2:7" ht="158.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C79" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G79" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="80" spans="2:7" ht="158.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C80" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C81" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="105.45" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C82" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C83" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C84" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="70.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C85" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C86" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C89" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G89" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="90" spans="2:8" ht="193.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C90" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D90" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="G90" t="s">
         <v>716</v>
       </c>
-      <c r="G90" t="s">
-        <v>718</v>
-      </c>
       <c r="H90" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="140.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C91" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="158.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C92" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="140.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C93" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C94" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="105.45" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C95" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="87.9" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C96" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G96" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="105.45" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C97" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C98" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C99" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="100" spans="2:4" ht="175.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C100" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="101" spans="2:4" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C101" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="102" spans="2:4" ht="105.45" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C102" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="103" spans="2:4" ht="87.9" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C103" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="104" spans="2:4" ht="70.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C104" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="105" spans="2:4" ht="140.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C105" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="106" spans="2:4" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C106" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="107" spans="2:4" ht="70.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C107" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="108" spans="2:4" ht="87.9" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C108" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="109" spans="2:4" ht="193.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C109" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="110" spans="2:4" ht="105.45" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C110" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="111" spans="2:4" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C111" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="112" spans="2:4" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C112" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="115" spans="2:4" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C115" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="116" spans="2:4" ht="105.45" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C116" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="117" spans="2:4" ht="105.45" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C117" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="118" spans="2:4" ht="105.45" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C118" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="119" spans="2:4" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C119" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="120" spans="2:4" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C120" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="121" spans="2:4" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C121" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="122" spans="2:4" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C122" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="123" spans="2:4" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C123" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="124" spans="2:4" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C124" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="125" spans="2:4" ht="87.9" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C125" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="126" spans="2:4" ht="87.9" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C126" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="127" spans="2:4" ht="140.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C127" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="128" spans="2:4" ht="87.9" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C128" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="129" spans="2:4" ht="158.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B129" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C129" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="130" spans="2:4" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B130" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C130" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="131" spans="2:4" ht="87.9" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C131" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="132" spans="2:4" ht="87.9" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C132" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="133" spans="2:4" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C133" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="134" spans="2:4" ht="105.45" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C134" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="135" spans="2:4" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C135" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="136" spans="2:4" ht="140.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C136" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B138" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="139" spans="2:4" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B139" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C139" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="140" spans="2:4" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C140" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="141" spans="2:4" ht="158.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C141" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="142" spans="2:4" ht="175.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C142" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="143" spans="2:4" ht="105.45" x14ac:dyDescent="0.55000000000000004">
       <c r="B143" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C143" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="144" spans="2:4" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C144" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="145" spans="2:4" ht="158.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B145" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C145" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="146" spans="2:4" ht="87.9" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C146" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="147" spans="2:4" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B147" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C147" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="148" spans="2:4" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B148" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C148" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="149" spans="2:4" ht="140.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B149" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C149" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="150" spans="2:4" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C150" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="151" spans="2:4" ht="140.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C151" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="152" spans="2:4" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B152" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C152" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="153" spans="2:4" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C153" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="154" spans="2:4" ht="87.9" x14ac:dyDescent="0.55000000000000004">
       <c r="B154" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C154" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="155" spans="2:4" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B155" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C155" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="156" spans="2:4" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B156" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C156" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="157" spans="2:4" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B157" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C157" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="158" spans="2:4" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B158" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C158" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="159" spans="2:4" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B159" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C159" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="160" spans="2:4" ht="140.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B160" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C160" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B162" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="140.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C163" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="87.9" x14ac:dyDescent="0.55000000000000004">
       <c r="B164" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C164" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B165" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C165" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B166" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C166" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B167" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C167" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B168" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C168" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="140.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B169" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C169" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B170" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C170" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B171" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C171" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B172" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C172" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B173" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C173" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="158.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B174" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C174" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -13705,8 +13709,8 @@
       <c r="B175" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D175" s="19" t="s">
-        <v>847</v>
+      <c r="D175" s="17" t="s">
+        <v>845</v>
       </c>
     </row>
   </sheetData>
